--- a/data/trans_orig/P14C10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE7F293-4BE1-4ABD-880E-B437136524A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2764C4-5FD2-44D6-9973-3E5874B334FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66A61837-F02C-4DF4-8F46-389394A5E408}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B745D450-A8F6-4E23-BD82-890937BF8182}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>26,21%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,10 +134,10 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>6,02%</t>
@@ -146,16 +146,16 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>13,59%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,79 @@
     <t>78,7%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -260,7 +257,7 @@
     <t>55,55%</t>
   </si>
   <si>
-    <t>21,85%</t>
+    <t>21,84%</t>
   </si>
   <si>
     <t>88,48%</t>
@@ -269,10 +266,10 @@
     <t>58,94%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>37,73%</t>
@@ -287,10 +284,10 @@
     <t>32,74%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>35,26%</t>
@@ -299,7 +296,7 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>63,17%</t>
+    <t>63,58%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -314,94 +311,91 @@
     <t>11,71%</t>
   </si>
   <si>
-    <t>47,24%</t>
+    <t>47,45%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>24,69%</t>
+    <t>24,75%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>26,98%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F014D595-22E5-4475-B92E-D429BCEC10C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A01A6-881A-4B1A-9E00-C7B7F015A2CC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1227,13 +1221,13 @@
         <v>17126</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1248,13 +1242,13 @@
         <v>3382</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1263,13 +1257,13 @@
         <v>4850</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1278,13 +1272,13 @@
         <v>8232</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,7 +1334,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1352,13 +1346,13 @@
         <v>5940</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1367,13 +1361,13 @@
         <v>5204</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1382,13 +1376,13 @@
         <v>11145</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1397,13 @@
         <v>3599</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1418,13 +1412,13 @@
         <v>3068</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1433,13 +1427,13 @@
         <v>6667</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1469,13 +1463,13 @@
         <v>1097</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1484,13 +1478,13 @@
         <v>1097</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1552,13 @@
         <v>91515</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -1573,13 +1567,13 @@
         <v>111537</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -1588,13 +1582,13 @@
         <v>203052</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1603,13 @@
         <v>27989</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1624,13 +1618,13 @@
         <v>31076</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -1639,13 +1633,13 @@
         <v>59065</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1654,13 @@
         <v>7187</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -1675,13 +1669,13 @@
         <v>12075</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -1690,13 +1684,13 @@
         <v>19262</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2764C4-5FD2-44D6-9973-3E5874B334FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C22B2C-B5B1-4490-A8B2-72924898CF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B745D450-A8F6-4E23-BD82-890937BF8182}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{799022F8-0234-4AAF-ABED-EDE1663A1F2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
-  <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+  <si>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 3,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>26,21%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,112 +134,115 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,37 +251,37 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>32,74%</t>
@@ -287,16 +290,16 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>66,83%</t>
+    <t>66,93%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -311,91 +314,94 @@
     <t>11,71%</t>
   </si>
   <si>
-    <t>47,45%</t>
+    <t>46,91%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>24,75%</t>
+    <t>29,27%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>26,98%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A01A6-881A-4B1A-9E00-C7B7F015A2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6AAA96-9CF0-46DE-BC12-7C5451CB4471}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1221,13 +1227,13 @@
         <v>17126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,13 +1248,13 @@
         <v>3382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1257,13 +1263,13 @@
         <v>4850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1272,13 +1278,13 @@
         <v>8232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1346,13 +1352,13 @@
         <v>5940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1361,13 +1367,13 @@
         <v>5204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1376,13 +1382,13 @@
         <v>11145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,13 +1403,13 @@
         <v>3599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1412,13 +1418,13 @@
         <v>3068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1427,13 +1433,13 @@
         <v>6667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1463,13 +1469,13 @@
         <v>1097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1478,13 +1484,13 @@
         <v>1097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,13 +1558,13 @@
         <v>91515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -1567,13 +1573,13 @@
         <v>111537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -1582,13 +1588,13 @@
         <v>203052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,13 +1609,13 @@
         <v>27989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1618,13 +1624,13 @@
         <v>31076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -1633,13 +1639,13 @@
         <v>59065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,13 +1660,13 @@
         <v>7187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -1669,13 +1675,13 @@
         <v>12075</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -1684,13 +1690,13 @@
         <v>19262</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
